--- a/TradingPL.xlsx
+++ b/TradingPL.xlsx
@@ -401,13 +401,6 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">

--- a/TradingPL.xlsx
+++ b/TradingPL.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
@@ -407,6 +407,9 @@
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -422,6 +425,15 @@
       <c r="D1" t="str">
         <v/>
       </c>
+      <c r="E1" t="str">
+        <v>May-24</v>
+      </c>
+      <c r="F1" t="str">
+        <v/>
+      </c>
+      <c r="G1" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -434,6 +446,15 @@
         <v>Value</v>
       </c>
       <c r="D2" t="str">
+        <v>Rate</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Qty</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Value</v>
+      </c>
+      <c r="G2" t="str">
         <v>Rate</v>
       </c>
     </row>
@@ -450,6 +471,15 @@
       <c r="D3" t="str">
         <v/>
       </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -464,6 +494,15 @@
       <c r="D4" t="str">
         <v/>
       </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -478,6 +517,15 @@
       <c r="D5" t="str">
         <v>252.61</v>
       </c>
+      <c r="E5">
+        <v>43</v>
+      </c>
+      <c r="F5">
+        <v>10400</v>
+      </c>
+      <c r="G5" t="str">
+        <v>241.86</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -492,6 +540,15 @@
       <c r="D6" t="str">
         <v/>
       </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -506,6 +563,15 @@
       <c r="D7" t="str">
         <v>221.51</v>
       </c>
+      <c r="E7">
+        <v>298.25</v>
+      </c>
+      <c r="F7">
+        <v>70710</v>
+      </c>
+      <c r="G7" t="str">
+        <v>237.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -520,6 +586,15 @@
       <c r="D8" t="str">
         <v>190.00</v>
       </c>
+      <c r="E8">
+        <v>949.42</v>
+      </c>
+      <c r="F8">
+        <v>183407.9</v>
+      </c>
+      <c r="G8" t="str">
+        <v>193.18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -534,6 +609,15 @@
       <c r="D9" t="str">
         <v>140.45</v>
       </c>
+      <c r="E9">
+        <v>6605</v>
+      </c>
+      <c r="F9">
+        <v>978441</v>
+      </c>
+      <c r="G9" t="str">
+        <v>148.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -548,6 +632,15 @@
       <c r="D10" t="str">
         <v/>
       </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -562,6 +655,15 @@
       <c r="D11" t="str">
         <v/>
       </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -576,6 +678,15 @@
       <c r="D12" t="str">
         <v/>
       </c>
+      <c r="E12">
+        <v>549</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -590,6 +701,15 @@
       <c r="D13" t="str">
         <v>124.56</v>
       </c>
+      <c r="E13">
+        <v>5918</v>
+      </c>
+      <c r="F13">
+        <v>759300</v>
+      </c>
+      <c r="G13" t="str">
+        <v>128.30</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -604,6 +724,15 @@
       <c r="D14" t="str">
         <v>195.40</v>
       </c>
+      <c r="E14">
+        <v>298.25</v>
+      </c>
+      <c r="F14">
+        <v>56048</v>
+      </c>
+      <c r="G14" t="str">
+        <v>187.92</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -618,6 +747,15 @@
       <c r="D15" t="str">
         <v/>
       </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -632,6 +770,15 @@
       <c r="D16" t="str">
         <v/>
       </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -646,6 +793,15 @@
       <c r="D17" t="str">
         <v/>
       </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -660,6 +816,15 @@
       <c r="D18" t="str">
         <v/>
       </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -674,6 +839,15 @@
       <c r="D19" t="str">
         <v/>
       </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -688,6 +862,15 @@
       <c r="D20" t="str">
         <v/>
       </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -702,6 +885,15 @@
       <c r="D21" t="str">
         <v/>
       </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -716,6 +908,15 @@
       <c r="D22" t="str">
         <v/>
       </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -730,10 +931,19 @@
       <c r="D23" t="str">
         <v/>
       </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G23"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/TradingPL.xlsx
+++ b/TradingPL.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
@@ -407,9 +407,6 @@
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -417,21 +414,12 @@
         <v>Particulars</v>
       </c>
       <c r="B1" t="str">
-        <v>Apr-24</v>
+        <v>Jan-25</v>
       </c>
       <c r="C1" t="str">
         <v/>
       </c>
       <c r="D1" t="str">
-        <v/>
-      </c>
-      <c r="E1" t="str">
-        <v>May-24</v>
-      </c>
-      <c r="F1" t="str">
-        <v/>
-      </c>
-      <c r="G1" t="str">
         <v/>
       </c>
     </row>
@@ -446,15 +434,6 @@
         <v>Value</v>
       </c>
       <c r="D2" t="str">
-        <v>Rate</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Qty</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Value</v>
-      </c>
-      <c r="G2" t="str">
         <v>Rate</v>
       </c>
     </row>
@@ -462,23 +441,14 @@
       <c r="A3" t="str">
         <v>Sales Accounts</v>
       </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
+      <c r="B3">
+        <v>9764.4</v>
+      </c>
+      <c r="C3">
+        <v>1795765.78</v>
       </c>
       <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
+        <v>183.91</v>
       </c>
     </row>
     <row r="4">
@@ -494,37 +464,19 @@
       <c r="D4" t="str">
         <v/>
       </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
         <v>Sales-Mono Shade Net</v>
       </c>
       <c r="B5">
-        <v>479</v>
+        <v>1203</v>
       </c>
       <c r="C5">
-        <v>121000</v>
+        <v>331336.5</v>
       </c>
       <c r="D5" t="str">
-        <v>252.61</v>
-      </c>
-      <c r="E5">
-        <v>43</v>
-      </c>
-      <c r="F5">
-        <v>10400</v>
-      </c>
-      <c r="G5" t="str">
-        <v>241.86</v>
+        <v>275.43</v>
       </c>
     </row>
     <row r="6">
@@ -540,37 +492,19 @@
       <c r="D6" t="str">
         <v/>
       </c>
-      <c r="E6" t="str">
-        <v/>
-      </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <v>Sales-Tape Shade Net</v>
       </c>
       <c r="B7">
-        <v>1089.3</v>
+        <v>806</v>
       </c>
       <c r="C7">
-        <v>241286</v>
+        <v>177289</v>
       </c>
       <c r="D7" t="str">
-        <v>221.51</v>
-      </c>
-      <c r="E7">
-        <v>298.25</v>
-      </c>
-      <c r="F7">
-        <v>70710</v>
-      </c>
-      <c r="G7" t="str">
-        <v>237.08</v>
+        <v>219.96</v>
       </c>
     </row>
     <row r="8">
@@ -578,22 +512,13 @@
         <v>Sales-Weed Mate Fabrics</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="C8">
-        <v>3800</v>
+        <v>54000</v>
       </c>
       <c r="D8" t="str">
-        <v>190.00</v>
-      </c>
-      <c r="E8">
-        <v>949.42</v>
-      </c>
-      <c r="F8">
-        <v>183407.9</v>
-      </c>
-      <c r="G8" t="str">
-        <v>193.18</v>
+        <v>180.00</v>
       </c>
     </row>
     <row r="9">
@@ -601,45 +526,27 @@
         <v>Sales-PP Woven Sacks</v>
       </c>
       <c r="B9">
-        <v>6074.6</v>
+        <v>7455.4</v>
       </c>
       <c r="C9">
-        <v>853177.32</v>
+        <v>1233140.28</v>
       </c>
       <c r="D9" t="str">
-        <v>140.45</v>
-      </c>
-      <c r="E9">
-        <v>6605</v>
-      </c>
-      <c r="F9">
-        <v>978441</v>
-      </c>
-      <c r="G9" t="str">
-        <v>148.14</v>
+        <v>165.40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <v>Opening Stock</v>
       </c>
-      <c r="B10" t="str">
-        <v/>
-      </c>
-      <c r="C10" t="str">
-        <v/>
+      <c r="B10">
+        <v>943</v>
+      </c>
+      <c r="C10">
+        <v>183346</v>
       </c>
       <c r="D10" t="str">
-        <v/>
-      </c>
-      <c r="E10" t="str">
-        <v/>
-      </c>
-      <c r="F10" t="str">
-        <v/>
-      </c>
-      <c r="G10" t="str">
-        <v/>
+        <v>194.43</v>
       </c>
     </row>
     <row r="11">
@@ -655,37 +562,19 @@
       <c r="D11" t="str">
         <v/>
       </c>
-      <c r="E11" t="str">
-        <v/>
-      </c>
-      <c r="F11" t="str">
-        <v/>
-      </c>
-      <c r="G11" t="str">
-        <v/>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <v>Add: Purchase MSN</v>
       </c>
       <c r="B12">
-        <v>493</v>
-      </c>
-      <c r="C12" t="str">
-        <v/>
+        <v>1629</v>
+      </c>
+      <c r="C12">
+        <v>335483</v>
       </c>
       <c r="D12" t="str">
-        <v/>
-      </c>
-      <c r="E12">
-        <v>549</v>
-      </c>
-      <c r="F12" t="str">
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <v/>
+        <v>205.94</v>
       </c>
     </row>
     <row r="13">
@@ -693,22 +582,13 @@
         <v>Add: Purchase PP Sacks</v>
       </c>
       <c r="B13">
-        <v>6801</v>
+        <v>7455</v>
       </c>
       <c r="C13">
-        <v>847116</v>
+        <v>1079701</v>
       </c>
       <c r="D13" t="str">
-        <v>124.56</v>
-      </c>
-      <c r="E13">
-        <v>5918</v>
-      </c>
-      <c r="F13">
-        <v>759300</v>
-      </c>
-      <c r="G13" t="str">
-        <v>128.30</v>
+        <v>144.83</v>
       </c>
     </row>
     <row r="14">
@@ -716,22 +596,13 @@
         <v>Add: Purchase TSN</v>
       </c>
       <c r="B14">
-        <v>1097</v>
+        <v>696</v>
       </c>
       <c r="C14">
-        <v>214350</v>
+        <v>138061</v>
       </c>
       <c r="D14" t="str">
-        <v>195.40</v>
-      </c>
-      <c r="E14">
-        <v>298.25</v>
-      </c>
-      <c r="F14">
-        <v>56048</v>
-      </c>
-      <c r="G14" t="str">
-        <v>187.92</v>
+        <v>198.36</v>
       </c>
     </row>
     <row r="15">
@@ -747,203 +618,150 @@
       <c r="D15" t="str">
         <v/>
       </c>
-      <c r="E15" t="str">
-        <v/>
-      </c>
-      <c r="F15" t="str">
-        <v/>
-      </c>
-      <c r="G15" t="str">
-        <v/>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <v>Add: Purchase Others</v>
       </c>
-      <c r="B16" t="str">
-        <v/>
-      </c>
-      <c r="C16" t="str">
-        <v/>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16" t="str">
-        <v/>
-      </c>
-      <c r="E16" t="str">
-        <v/>
-      </c>
-      <c r="F16" t="str">
-        <v/>
-      </c>
-      <c r="G16" t="str">
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Less: Closing Stock</v>
-      </c>
-      <c r="B17" t="str">
-        <v/>
-      </c>
-      <c r="C17" t="str">
-        <v/>
+        <v>Total Purchase</v>
+      </c>
+      <c r="B17">
+        <v>9780</v>
+      </c>
+      <c r="C17">
+        <v>1553245</v>
       </c>
       <c r="D17" t="str">
-        <v/>
-      </c>
-      <c r="E17" t="str">
-        <v/>
-      </c>
-      <c r="F17" t="str">
-        <v/>
-      </c>
-      <c r="G17" t="str">
-        <v/>
+        <v>158.82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Cost of Sales</v>
-      </c>
-      <c r="B18" t="str">
-        <v/>
-      </c>
-      <c r="C18" t="str">
-        <v/>
+        <v>Less: Closing Stock</v>
+      </c>
+      <c r="B18">
+        <v>959</v>
+      </c>
+      <c r="C18">
+        <v>188080</v>
       </c>
       <c r="D18" t="str">
-        <v/>
-      </c>
-      <c r="E18" t="str">
-        <v/>
-      </c>
-      <c r="F18" t="str">
-        <v/>
-      </c>
-      <c r="G18" t="str">
-        <v/>
+        <v>196.12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Conveyance Charges</v>
-      </c>
-      <c r="B19" t="str">
-        <v/>
-      </c>
-      <c r="C19" t="str">
-        <v/>
+        <v>Cost of Sales</v>
+      </c>
+      <c r="B19">
+        <v>9764</v>
+      </c>
+      <c r="C19">
+        <v>1548511</v>
       </c>
       <c r="D19" t="str">
-        <v/>
-      </c>
-      <c r="E19" t="str">
-        <v/>
-      </c>
-      <c r="F19" t="str">
-        <v/>
-      </c>
-      <c r="G19" t="str">
-        <v/>
+        <v>158.59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Salary &amp; Wages</v>
+        <v>Conveyance Charges</v>
       </c>
       <c r="B20" t="str">
         <v/>
       </c>
-      <c r="C20" t="str">
-        <v/>
+      <c r="C20">
+        <v>3432</v>
       </c>
       <c r="D20" t="str">
-        <v/>
-      </c>
-      <c r="E20" t="str">
-        <v/>
-      </c>
-      <c r="F20" t="str">
-        <v/>
-      </c>
-      <c r="G20" t="str">
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Commission on Sales</v>
+        <v>Salary &amp; Wages</v>
       </c>
       <c r="B21" t="str">
         <v/>
       </c>
-      <c r="C21" t="str">
-        <v/>
+      <c r="C21">
+        <v>94000</v>
       </c>
       <c r="D21" t="str">
-        <v/>
-      </c>
-      <c r="E21" t="str">
-        <v/>
-      </c>
-      <c r="F21" t="str">
-        <v/>
-      </c>
-      <c r="G21" t="str">
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Direct Expenses</v>
+        <v>Commission on Sales</v>
       </c>
       <c r="B22" t="str">
         <v/>
       </c>
-      <c r="C22" t="str">
-        <v/>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" t="str">
-        <v/>
-      </c>
-      <c r="E22" t="str">
-        <v/>
-      </c>
-      <c r="F22" t="str">
-        <v/>
-      </c>
-      <c r="G22" t="str">
         <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
+        <v>Traveling Charges</v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Direct Expenses</v>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24">
+        <v>97432</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
         <v>Gross Profit</v>
       </c>
-      <c r="B23" t="str">
-        <v/>
-      </c>
-      <c r="C23" t="str">
-        <v/>
-      </c>
-      <c r="D23" t="str">
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <v/>
-      </c>
-      <c r="G23" t="str">
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25">
+        <v>149822.78000000003</v>
+      </c>
+      <c r="D25" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D25"/>
   </ignoredErrors>
 </worksheet>
 </file>